--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -397,59 +397,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="38.33203125" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
     <col min="17" max="17" width="48.83203125" customWidth="1"/>
     <col min="18" max="18" width="18.83203125" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="26.33203125" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
     <col min="23" max="23" width="10.83203125" customWidth="1"/>
     <col min="24" max="24" width="10.83203125" customWidth="1"/>
-    <col min="25" max="25" width="38.33203125" customWidth="1"/>
+    <col min="25" max="25" width="44.33203125" customWidth="1"/>
     <col min="26" max="26" width="21.83203125" customWidth="1"/>
     <col min="27" max="27" width="10.83203125" customWidth="1"/>
-    <col min="28" max="28" width="21.83203125" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" customWidth="1"/>
+    <col min="29" max="29" width="29.33203125" customWidth="1"/>
     <col min="30" max="30" width="15.83203125" customWidth="1"/>
     <col min="31" max="31" width="10.83203125" customWidth="1"/>
     <col min="32" max="32" width="10.83203125" customWidth="1"/>
-    <col min="33" max="33" width="33.83203125" customWidth="1"/>
-    <col min="34" max="34" width="23.33203125" customWidth="1"/>
-    <col min="35" max="35" width="20.33203125" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" customWidth="1"/>
     <col min="36" max="36" width="10.83203125" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
-    <col min="39" max="39" width="10.83203125" customWidth="1"/>
-    <col min="40" max="40" width="10.83203125" customWidth="1"/>
-    <col min="41" max="41" width="10.83203125" customWidth="1"/>
-    <col min="42" max="42" width="10.83203125" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" customWidth="1"/>
-    <col min="44" max="44" width="10.83203125" customWidth="1"/>
-    <col min="45" max="45" width="11.33203125" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" customWidth="1"/>
-    <col min="47" max="47" width="11.33203125" customWidth="1"/>
-    <col min="48" max="48" width="18.83203125" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" customWidth="1"/>
+    <col min="39" max="39" width="11.33203125" customWidth="1"/>
+    <col min="40" max="40" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,10 +472,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>atharva2002b@gmail.com</v>
+        <v>ashwinsapkale65@gmail.com</v>
       </c>
       <c r="B2" t="str">
-        <v>Atharva Bhosale</v>
+        <v>Ashwin Sapkale</v>
       </c>
       <c r="C2" t="str">
         <v>India</v>
@@ -492,13 +484,13 @@
         <v>Maharashtra</v>
       </c>
       <c r="E2" t="str">
-        <v>asdfdsaf</v>
+        <v>juna satara mari mata mandir</v>
       </c>
       <c r="F2">
-        <v>99999999999</v>
+        <v>8999326308</v>
       </c>
       <c r="G2">
-        <v>411088</v>
+        <v>425201</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -515,16 +507,16 @@
         <v>India</v>
       </c>
       <c r="D3" t="str">
-        <v>Maharashtra</v>
+        <v>Gujarat</v>
       </c>
       <c r="E3" t="str">
-        <v>mxmfvn</v>
+        <v>Gandhi Nagar Gujrat</v>
       </c>
       <c r="F3">
-        <v>972923</v>
+        <v>7972939633</v>
       </c>
       <c r="G3">
-        <v>425201</v>
+        <v>425203</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -541,16 +533,16 @@
         <v>India</v>
       </c>
       <c r="D4" t="str">
-        <v>Maharashtra</v>
+        <v>Delhi</v>
       </c>
       <c r="E4" t="str">
-        <v>juna sat</v>
+        <v>main market delhi</v>
       </c>
       <c r="F4">
-        <v>89993263008</v>
+        <v>8329321333</v>
       </c>
       <c r="G4">
-        <v>425201</v>
+        <v>425208</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -558,59 +550,33 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ashwinsapkale65@gmail.com</v>
+        <v>ashwinsapkalecomp@siem.org.in</v>
       </c>
       <c r="B5" t="str">
-        <v>Ashwin Sapkale</v>
+        <v>ASHWIN SAPKALE</v>
       </c>
       <c r="C5" t="str">
         <v>India</v>
       </c>
       <c r="D5" t="str">
-        <v>Madhya Pradesh</v>
+        <v>Karnataka</v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve">juna satara </v>
+        <v>hira market kolkata</v>
       </c>
       <c r="F5">
-        <v>8999326308</v>
+        <v>8596759855</v>
       </c>
       <c r="G5">
-        <v>425201</v>
+        <v>425634</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>atharva2001b@gmail.com</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Atharva Bhosale</v>
-      </c>
-      <c r="C6" t="str">
-        <v>United States</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Alaska</v>
-      </c>
-      <c r="E6" t="str">
-        <v>jj</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>411036</v>
-      </c>
-      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/students.xlsx
+++ b/backend/students.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,42 +406,26 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="63.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="38.33203125" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="36.83203125" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="48.83203125" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" customWidth="1"/>
-    <col min="21" max="21" width="26.33203125" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" customWidth="1"/>
-    <col min="25" max="25" width="44.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.83203125" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" customWidth="1"/>
-    <col min="29" max="29" width="29.33203125" customWidth="1"/>
-    <col min="30" max="30" width="15.83203125" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="10.83203125" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" customWidth="1"/>
-    <col min="35" max="35" width="11.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.83203125" customWidth="1"/>
-    <col min="37" max="37" width="11.33203125" customWidth="1"/>
-    <col min="38" max="38" width="12.83203125" customWidth="1"/>
-    <col min="39" max="39" width="11.33203125" customWidth="1"/>
-    <col min="40" max="40" width="18.83203125" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,10 +468,10 @@
         <v>Maharashtra</v>
       </c>
       <c r="E2" t="str">
-        <v>juna satara mari mata mandir</v>
-      </c>
-      <c r="F2">
-        <v>8999326308</v>
+        <v xml:space="preserve">Juna Satara Mari Mata Mandir Jalgaon Road </v>
+      </c>
+      <c r="F2" t="str">
+        <v>+918999326308</v>
       </c>
       <c r="G2">
         <v>425201</v>
@@ -507,76 +491,24 @@
         <v>India</v>
       </c>
       <c r="D3" t="str">
-        <v>Gujarat</v>
+        <v>Manipur</v>
       </c>
       <c r="E3" t="str">
-        <v>Gandhi Nagar Gujrat</v>
-      </c>
-      <c r="F3">
-        <v>7972939633</v>
+        <v>130 apartment E unit 149</v>
+      </c>
+      <c r="F3" t="str">
+        <v>+9119524125287</v>
       </c>
       <c r="G3">
-        <v>425203</v>
+        <v>55117</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>nirvana.tech.solutions@gmail.com</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Nirvana tech</v>
-      </c>
-      <c r="C4" t="str">
-        <v>India</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Delhi</v>
-      </c>
-      <c r="E4" t="str">
-        <v>main market delhi</v>
-      </c>
-      <c r="F4">
-        <v>8329321333</v>
-      </c>
-      <c r="G4">
-        <v>425208</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ashwinsapkalecomp@siem.org.in</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ASHWIN SAPKALE</v>
-      </c>
-      <c r="C5" t="str">
-        <v>India</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Karnataka</v>
-      </c>
-      <c r="E5" t="str">
-        <v>hira market kolkata</v>
-      </c>
-      <c r="F5">
-        <v>8596759855</v>
-      </c>
-      <c r="G5">
-        <v>425634</v>
-      </c>
-      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>